--- a/docs/20140504_LogTime_T4.xlsx
+++ b/docs/20140504_LogTime_T4.xlsx
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>ANLT</t>
   </si>
@@ -118,9 +118,6 @@
     <t xml:space="preserve">SPRINT </t>
   </si>
   <si>
-    <t xml:space="preserve">ANLT </t>
-  </si>
-  <si>
     <t xml:space="preserve">Lương </t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>TUẦN 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Lũy kế từ T3 </t>
-  </si>
-  <si>
     <t>TUẦN 2</t>
   </si>
   <si>
@@ -158,9 +152,6 @@
   </si>
   <si>
     <t>TUẦN 4</t>
-  </si>
-  <si>
-    <t>Lũy Kế Tháng 5</t>
   </si>
   <si>
     <t>TUẦN 5</t>
@@ -258,12 +249,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -282,31 +267,31 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="18">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -340,19 +325,6 @@
         </top>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <font>
@@ -384,20 +356,18 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -428,15 +398,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:D34" totalsRowCount="1" headerRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:D34" totalsRowCount="1" headerRowDxfId="17">
   <autoFilter ref="A3:D33"/>
   <tableColumns count="4">
     <tableColumn id="1" name="SPRINT "/>
-    <tableColumn id="2" name="Ngày " dataDxfId="23" totalsRowDxfId="19"/>
-    <tableColumn id="3" name="ANLT" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="18">
+    <tableColumn id="2" name="Ngày " dataDxfId="16" totalsRowDxfId="2"/>
+    <tableColumn id="3" name="ANLT" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="1">
       <totalsRowFormula>SUM(Table1[ANLT])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="ANHDT" totalsRowFunction="custom" totalsRowDxfId="17">
+    <tableColumn id="5" name="ANHDT" totalsRowFunction="custom" totalsRowDxfId="0">
       <totalsRowFormula>SUM(Table1[ANHDT])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -449,14 +419,14 @@
   <autoFilter ref="F17:J19"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ACCOUNT "/>
-    <tableColumn id="2" name="Lương " dataDxfId="13"/>
-    <tableColumn id="3" name="Trên Tháng " dataDxfId="21">
+    <tableColumn id="2" name="Lương " dataDxfId="14"/>
+    <tableColumn id="3" name="Trên Tháng " dataDxfId="13">
       <calculatedColumnFormula>(G18/2)*0.8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Trên Ngày " dataDxfId="15">
+    <tableColumn id="4" name="Trên Ngày " dataDxfId="12">
       <calculatedColumnFormula>H18/(30-4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Trên Giờ " dataDxfId="20">
+    <tableColumn id="5" name="Trên Giờ " dataDxfId="11">
       <calculatedColumnFormula>I18/4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -469,8 +439,8 @@
   <autoFilter ref="F3:H9"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Chia theo Tuần"/>
-    <tableColumn id="2" name="ANLT" dataDxfId="12"/>
-    <tableColumn id="3" name="ANHDT" dataDxfId="16"/>
+    <tableColumn id="2" name="ANLT" dataDxfId="10"/>
+    <tableColumn id="3" name="ANHDT" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -478,39 +448,17 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="F23:H29" totalsRowCount="1">
-  <autoFilter ref="F23:H29"/>
+  <autoFilter ref="F23:H28"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Giai đoạn" dataDxfId="14" totalsRowDxfId="9"/>
-    <tableColumn id="2" name="ANLT" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="8">
+    <tableColumn id="1" name="Giai đoạn" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="ANLT" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="5">
       <calculatedColumnFormula>IF(G4&gt;=28,(G4-4)*$J$18,IF(G4&lt;=24,G4 *$J$18,24*$J$18 ))</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table3[ANLT])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="ANHDT" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="7">
+    <tableColumn id="3" name="ANHDT" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="3">
       <calculatedColumnFormula>IF(H4&gt;=28,(H4-4)*$J$19,IF(H4&lt;=24,H4 *$J$19,24*$J$19 ))</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table3[ANHDT])</totalsRowFormula>
     </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="L3:M4" totalsRowShown="0" dataDxfId="4">
-  <autoFilter ref="L3:M4"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="ANLT" dataDxfId="6"/>
-    <tableColumn id="2" name="ANHDT" dataDxfId="5"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="J3:K4" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="J3:K4"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="ANLT " dataDxfId="3"/>
-    <tableColumn id="2" name="ANHDT" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -771,7 +719,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -781,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,27 +751,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
       <c r="K2" s="7"/>
-      <c r="L2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="8"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
@@ -842,85 +785,68 @@
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="7"/>
-      <c r="J3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>41730</v>
       </c>
-      <c r="C4" s="12">
-        <v>4</v>
-      </c>
-      <c r="D4" s="10"/>
+      <c r="C4" s="10">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8"/>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="18">
+        <v>12</v>
+      </c>
+      <c r="G4" s="16">
         <f>SUM(C4:C9)</f>
         <v>24</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="14">
         <f>SUM(D4:D9)+K4</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7"/>
-      <c r="J4" s="7">
-        <v>4</v>
-      </c>
-      <c r="K4" s="7">
-        <v>2</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>41731</v>
       </c>
-      <c r="C5" s="12">
-        <v>4</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="C5" s="10">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="18">
+        <v>13</v>
+      </c>
+      <c r="G5" s="16">
         <f>SUM(C10:C16)</f>
         <v>19</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="14">
         <f>SUM(D10:D16)</f>
         <v>4</v>
       </c>
@@ -930,24 +856,24 @@
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>41732</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>5</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="8"/>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="19">
+        <v>14</v>
+      </c>
+      <c r="G6" s="17">
         <f>SUM(C17:C23)</f>
         <v>39</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="15">
         <f>SUM(D17:D23)</f>
         <v>28</v>
       </c>
@@ -959,26 +885,26 @@
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>41733</v>
       </c>
-      <c r="C7" s="12">
-        <v>4</v>
-      </c>
-      <c r="D7" s="10"/>
+      <c r="C7" s="10">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8"/>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="19">
+        <v>15</v>
+      </c>
+      <c r="G7" s="17">
         <f>SUM(C24:C30)</f>
         <v>33</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="15">
         <f>SUM(D24:D30)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -988,24 +914,24 @@
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="8">
         <v>3</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <v>41734</v>
       </c>
-      <c r="C8" s="12">
-        <v>4</v>
-      </c>
-      <c r="D8" s="10"/>
+      <c r="C8" s="10">
+        <v>4</v>
+      </c>
+      <c r="D8" s="8"/>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="19">
+        <v>16</v>
+      </c>
+      <c r="G8" s="17">
         <f>SUM(C31:C33)</f>
         <v>20</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="15">
         <f>SUM(D31:D33)</f>
         <v>0</v>
       </c>
@@ -1018,25 +944,25 @@
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="8">
         <v>3</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="9">
         <v>41735</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <v>3</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <v>8</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="17">
         <f>SUM(G4:G8)-J4-L4</f>
-        <v>131</v>
-      </c>
-      <c r="H9" s="17">
+        <v>135</v>
+      </c>
+      <c r="H9" s="15">
         <f>SUM(H4:H8)-K4-M4</f>
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I9" s="5"/>
       <c r="K9" s="7"/>
@@ -1047,16 +973,16 @@
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>4</v>
-      </c>
-      <c r="B10" s="14">
+      <c r="A10" s="11">
+        <v>4</v>
+      </c>
+      <c r="B10" s="12">
         <v>41736</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="13">
         <v>3</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="11"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="K10" s="7"/>
@@ -1067,125 +993,125 @@
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>4</v>
-      </c>
-      <c r="B11" s="14">
+      <c r="A11" s="11">
+        <v>4</v>
+      </c>
+      <c r="B11" s="12">
         <v>41737</v>
       </c>
-      <c r="C11" s="15">
-        <v>4</v>
-      </c>
-      <c r="D11" s="13">
+      <c r="C11" s="13">
+        <v>4</v>
+      </c>
+      <c r="D11" s="11">
         <v>4</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>4</v>
-      </c>
-      <c r="B12" s="14">
+      <c r="A12" s="11">
+        <v>4</v>
+      </c>
+      <c r="B12" s="12">
         <v>41738</v>
       </c>
-      <c r="C12" s="15">
-        <v>4</v>
-      </c>
-      <c r="D12" s="13"/>
+      <c r="C12" s="13">
+        <v>4</v>
+      </c>
+      <c r="D12" s="11"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>4</v>
-      </c>
-      <c r="B13" s="14">
+      <c r="A13" s="11">
+        <v>4</v>
+      </c>
+      <c r="B13" s="12">
         <v>41739</v>
       </c>
-      <c r="C13" s="15">
-        <v>4</v>
-      </c>
-      <c r="D13" s="13"/>
+      <c r="C13" s="13">
+        <v>4</v>
+      </c>
+      <c r="D13" s="11"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>4</v>
-      </c>
-      <c r="B14" s="14">
+      <c r="A14" s="11">
+        <v>4</v>
+      </c>
+      <c r="B14" s="12">
         <v>41740</v>
       </c>
-      <c r="C14" s="15">
-        <v>4</v>
-      </c>
-      <c r="D14" s="13"/>
+      <c r="C14" s="13">
+        <v>4</v>
+      </c>
+      <c r="D14" s="11"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>4</v>
-      </c>
-      <c r="B15" s="14">
+      <c r="A15" s="11">
+        <v>4</v>
+      </c>
+      <c r="B15" s="12">
         <v>41741</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="11"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>4</v>
-      </c>
-      <c r="B16" s="14">
+      <c r="A16" s="11">
+        <v>4</v>
+      </c>
+      <c r="B16" s="12">
         <v>41742</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>4</v>
-      </c>
-      <c r="B17" s="11">
+      <c r="A17" s="8">
+        <v>4</v>
+      </c>
+      <c r="B17" s="9">
         <v>41743</v>
       </c>
-      <c r="C17" s="12">
-        <v>4</v>
-      </c>
-      <c r="D17" s="10">
+      <c r="C17" s="10">
+        <v>4</v>
+      </c>
+      <c r="D17" s="8">
         <v>8</v>
       </c>
       <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" t="s">
         <v>7</v>
       </c>
-      <c r="I17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>4</v>
-      </c>
-      <c r="B18" s="11">
+      <c r="A18" s="8">
+        <v>4</v>
+      </c>
+      <c r="B18" s="9">
         <v>41744</v>
       </c>
-      <c r="C18" s="12">
-        <v>4</v>
-      </c>
-      <c r="D18" s="10"/>
+      <c r="C18" s="10">
+        <v>4</v>
+      </c>
+      <c r="D18" s="8"/>
       <c r="F18" t="s">
         <v>0</v>
       </c>
@@ -1207,16 +1133,16 @@
       <c r="L18" s="6"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>4</v>
-      </c>
-      <c r="B19" s="11">
+      <c r="A19" s="8">
+        <v>4</v>
+      </c>
+      <c r="B19" s="9">
         <v>41745</v>
       </c>
-      <c r="C19" s="12">
-        <v>4</v>
-      </c>
-      <c r="D19" s="10">
+      <c r="C19" s="10">
+        <v>4</v>
+      </c>
+      <c r="D19" s="8">
         <v>4</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -1239,62 +1165,62 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>4</v>
-      </c>
-      <c r="B20" s="11">
+      <c r="A20" s="8">
+        <v>4</v>
+      </c>
+      <c r="B20" s="9">
         <v>41746</v>
       </c>
-      <c r="C20" s="12">
-        <v>4</v>
-      </c>
-      <c r="D20" s="10">
+      <c r="C20" s="10">
+        <v>4</v>
+      </c>
+      <c r="D20" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>4</v>
-      </c>
-      <c r="B21" s="11">
+      <c r="A21" s="8">
+        <v>4</v>
+      </c>
+      <c r="B21" s="9">
         <v>41747</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="10">
         <v>5</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>4</v>
-      </c>
-      <c r="B22" s="11">
+      <c r="A22" s="8">
+        <v>4</v>
+      </c>
+      <c r="B22" s="9">
         <v>41748</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="10">
         <v>8</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <v>4</v>
-      </c>
-      <c r="B23" s="11">
+      <c r="A23" s="8">
+        <v>4</v>
+      </c>
+      <c r="B23" s="9">
         <v>41749</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="10">
         <v>10</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="8">
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>0</v>
@@ -1304,18 +1230,18 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
+      <c r="A24" s="11">
         <v>5</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="12">
         <v>41750</v>
       </c>
-      <c r="C24" s="15">
-        <v>4</v>
-      </c>
-      <c r="D24" s="13"/>
+      <c r="C24" s="13">
+        <v>4</v>
+      </c>
+      <c r="D24" s="11"/>
       <c r="F24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" s="6">
         <f>IF(G4&gt;=28,(G4-4)*$J$18,IF(G4&lt;=24,G4 *$J$18,24*$J$18 ))</f>
@@ -1323,22 +1249,24 @@
       </c>
       <c r="H24" s="6">
         <f t="shared" ref="H24:H28" si="2">IF(H4&gt;=28,(H4-4)*$J$19,IF(H4&lt;=24,H4 *$J$19,24*$J$19 ))</f>
-        <v>376923.07692307688</v>
+        <v>323076.92307692306</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
+      <c r="A25" s="11">
         <v>5</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="12">
         <v>41751</v>
       </c>
-      <c r="C25" s="15">
-        <v>4</v>
-      </c>
-      <c r="D25" s="13"/>
+      <c r="C25" s="13">
+        <v>4</v>
+      </c>
+      <c r="D25" s="11">
+        <v>4</v>
+      </c>
       <c r="F25" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" ref="G25:G28" si="3">IF(G5&gt;=28,(G5-4)*$J$18,IF(G5&lt;=24,G5 *$J$18,24*$J$18 ))</f>
@@ -1350,18 +1278,18 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
+      <c r="A26" s="11">
         <v>5</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="12">
         <v>41752</v>
       </c>
-      <c r="C26" s="15">
-        <v>4</v>
-      </c>
-      <c r="D26" s="13"/>
+      <c r="C26" s="13">
+        <v>4</v>
+      </c>
+      <c r="D26" s="11"/>
       <c r="F26" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="3"/>
@@ -1373,18 +1301,18 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
+      <c r="A27" s="11">
         <v>5</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="12">
         <v>41753</v>
       </c>
-      <c r="C27" s="15">
-        <v>4</v>
-      </c>
-      <c r="D27" s="13"/>
+      <c r="C27" s="13">
+        <v>4</v>
+      </c>
+      <c r="D27" s="11"/>
       <c r="F27" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G27" s="6">
         <f t="shared" si="3"/>
@@ -1392,22 +1320,24 @@
       </c>
       <c r="H27" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>323076.92307692306</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
+      <c r="A28" s="11">
         <v>5</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="12">
         <v>41754</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="13">
         <v>5</v>
       </c>
-      <c r="D28" s="13"/>
+      <c r="D28" s="11">
+        <v>4</v>
+      </c>
       <c r="F28" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" si="3"/>
@@ -1419,16 +1349,16 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
+      <c r="A29" s="11">
         <v>5</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="12">
         <v>41755</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="13">
         <v>2</v>
       </c>
-      <c r="D29" s="13"/>
+      <c r="D29" s="11"/>
       <c r="F29" s="3"/>
       <c r="G29" s="6">
         <f>SUM(Table3[ANLT])</f>
@@ -1436,57 +1366,59 @@
       </c>
       <c r="H29" s="6">
         <f>SUM(Table3[ANHDT])</f>
-        <v>1130769.2307692308</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
+      <c r="A30" s="11">
         <v>5</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="12">
         <v>41756</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="13">
         <v>10</v>
       </c>
-      <c r="D30" s="13"/>
+      <c r="D30" s="11">
+        <v>4</v>
+      </c>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+      <c r="A31" s="8">
         <v>5</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="9">
         <v>41757</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="10">
         <v>10</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+      <c r="A32" s="8">
         <v>5</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="9">
         <v>41758</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="10">
         <v>6</v>
       </c>
-      <c r="D32" s="10"/>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
+      <c r="A33" s="8">
         <v>5</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="9">
         <v>41759</v>
       </c>
-      <c r="C33" s="12">
-        <v>4</v>
-      </c>
-      <c r="D33" s="10"/>
+      <c r="C33" s="10">
+        <v>4</v>
+      </c>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
@@ -1496,7 +1428,7 @@
       </c>
       <c r="D34" s="5">
         <f>SUM(Table1[ANHDT])</f>
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1507,13 +1439,11 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <tableParts count="6">
+  <tableParts count="4">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
-    <tablePart r:id="rId7"/>
-    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>